--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T00:54:17+02:00</t>
+    <t>2023-07-23T17:00:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
